--- a/sem1/Успеваемость_С-ИП-21-2.xlsx
+++ b/sem1/Успеваемость_С-ИП-21-2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/AI/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6947E5A0-742B-714A-B34C-4B4A86C00BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A03C32-1032-9340-A950-BD95C1457289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="22">
   <si>
     <t>№</t>
   </si>
@@ -1611,7 +1611,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="166" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G16" sqref="G16"/>
+      <selection pane="topRight" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1640,9 +1640,15 @@
       <c r="E1" s="33">
         <v>45182</v>
       </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="F1" s="33">
+        <v>45188</v>
+      </c>
+      <c r="G1" s="33">
+        <v>45189</v>
+      </c>
+      <c r="H1" s="33">
+        <v>45196</v>
+      </c>
       <c r="I1" s="33"/>
       <c r="J1" s="33"/>
       <c r="K1" s="33"/>
@@ -1679,9 +1685,15 @@
       <c r="E2" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="F2" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>4</v>
+      </c>
       <c r="I2" s="35"/>
       <c r="J2" s="35"/>
       <c r="K2" s="35"/>
@@ -1718,9 +1730,15 @@
       <c r="E3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
+      <c r="F3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>4</v>
+      </c>
       <c r="I3" s="35"/>
       <c r="J3" s="35"/>
       <c r="K3" s="35"/>
@@ -1757,9 +1775,15 @@
       <c r="E4" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
+      <c r="F4" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>4</v>
+      </c>
       <c r="I4" s="35"/>
       <c r="J4" s="35"/>
       <c r="K4" s="35"/>
@@ -1796,9 +1820,15 @@
       <c r="E5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
+      <c r="F5" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>4</v>
+      </c>
       <c r="I5" s="35"/>
       <c r="J5" s="35"/>
       <c r="K5" s="35"/>
@@ -1835,9 +1865,15 @@
       <c r="E6" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
+      <c r="F6" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>4</v>
+      </c>
       <c r="I6" s="35"/>
       <c r="J6" s="35"/>
       <c r="K6" s="35"/>
@@ -1874,9 +1910,15 @@
       <c r="E7" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
+      <c r="F7" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>4</v>
+      </c>
       <c r="I7" s="35"/>
       <c r="J7" s="35"/>
       <c r="K7" s="35"/>
@@ -1913,9 +1955,15 @@
       <c r="E8" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
+      <c r="F8" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>3</v>
+      </c>
       <c r="I8" s="35"/>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
@@ -1952,9 +2000,15 @@
       <c r="E9" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
+      <c r="F9" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>4</v>
+      </c>
       <c r="I9" s="35"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
@@ -1991,9 +2045,15 @@
       <c r="E10" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
+      <c r="F10" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>3</v>
+      </c>
       <c r="I10" s="35"/>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
@@ -2030,9 +2090,15 @@
       <c r="E11" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
+      <c r="F11" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>4</v>
+      </c>
       <c r="I11" s="35"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
@@ -2069,9 +2135,15 @@
       <c r="E12" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
+      <c r="F12" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>3</v>
+      </c>
       <c r="I12" s="35"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
@@ -2108,9 +2180,15 @@
       <c r="E13" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
+      <c r="F13" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>4</v>
+      </c>
       <c r="I13" s="35"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
@@ -2147,9 +2225,15 @@
       <c r="E14" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
+      <c r="F14" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="34" t="s">
+        <v>4</v>
+      </c>
       <c r="I14" s="35"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
@@ -2186,9 +2270,15 @@
       <c r="E15" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
+      <c r="F15" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="34" t="s">
+        <v>4</v>
+      </c>
       <c r="I15" s="35"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
@@ -2225,9 +2315,15 @@
       <c r="E16" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
+      <c r="F16" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="34" t="s">
+        <v>4</v>
+      </c>
       <c r="I16" s="35"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
@@ -2264,9 +2360,15 @@
       <c r="E17" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
+      <c r="F17" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="34" t="s">
+        <v>3</v>
+      </c>
       <c r="I17" s="35"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
@@ -2303,9 +2405,15 @@
       <c r="E18" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
+      <c r="F18" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="34" t="s">
+        <v>3</v>
+      </c>
       <c r="I18" s="35"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>

--- a/sem1/Успеваемость_С-ИП-21-2.xlsx
+++ b/sem1/Успеваемость_С-ИП-21-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/AI/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A03C32-1032-9340-A950-BD95C1457289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4029F84E-B612-EA4B-9B53-1AF3BC233699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="23">
   <si>
     <t>№</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>=</t>
+  </si>
+  <si>
+    <t>Лаб 1</t>
   </si>
 </sst>
 </file>
@@ -304,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -333,9 +336,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -378,6 +378,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1611,14 +1617,14 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="166" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K10" sqref="K10"/>
+      <selection pane="topRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="38.33203125" style="1" customWidth="1"/>
-    <col min="3" max="11" width="9.1640625" style="36" customWidth="1"/>
+    <col min="3" max="11" width="9.1640625" style="35" customWidth="1"/>
     <col min="12" max="20" width="9.1640625" style="1" customWidth="1"/>
     <col min="21" max="21" width="8.83203125" style="1" customWidth="1"/>
     <col min="22" max="16384" width="8.83203125" style="1"/>
@@ -1631,27 +1637,31 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33">
+      <c r="C1" s="32">
         <v>45174</v>
       </c>
-      <c r="D1" s="33">
+      <c r="D1" s="32">
         <v>45175</v>
       </c>
-      <c r="E1" s="33">
+      <c r="E1" s="32">
         <v>45182</v>
       </c>
-      <c r="F1" s="33">
+      <c r="F1" s="32">
         <v>45188</v>
       </c>
-      <c r="G1" s="33">
+      <c r="G1" s="32">
         <v>45189</v>
       </c>
-      <c r="H1" s="33">
+      <c r="H1" s="32">
         <v>45196</v>
       </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="I1" s="32">
+        <v>45202</v>
+      </c>
+      <c r="J1" s="32">
+        <v>45203</v>
+      </c>
+      <c r="K1" s="32"/>
       <c r="L1" s="4"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
@@ -1666,8 +1676,8 @@
       <c r="W1" s="16"/>
       <c r="X1" s="16"/>
       <c r="Y1" s="15"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
     </row>
     <row r="2" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
@@ -1676,27 +1686,31 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
+      <c r="G2" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="34"/>
       <c r="L2" s="7"/>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
@@ -1721,27 +1735,31 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
+      <c r="C3" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="34"/>
       <c r="L3" s="7"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
@@ -1766,27 +1784,31 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
+      <c r="C4" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="34"/>
       <c r="L4" s="7"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
@@ -1811,27 +1833,31 @@
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
+      <c r="C5" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="34"/>
       <c r="L5" s="7"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
@@ -1856,27 +1882,31 @@
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
+      <c r="C6" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="34"/>
       <c r="L6" s="7"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
@@ -1891,8 +1921,8 @@
       <c r="W6" s="15"/>
       <c r="X6" s="15"/>
       <c r="Y6" s="15"/>
-      <c r="Z6" s="23"/>
-      <c r="AA6" s="23"/>
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="22"/>
     </row>
     <row r="7" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
@@ -1901,27 +1931,31 @@
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
+      <c r="C7" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="34"/>
       <c r="L7" s="7"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
@@ -1932,7 +1966,7 @@
       <c r="S7" s="8"/>
       <c r="T7" s="14"/>
       <c r="U7" s="15"/>
-      <c r="V7" s="22"/>
+      <c r="V7" s="21"/>
       <c r="W7" s="15"/>
       <c r="X7" s="15"/>
       <c r="Y7" s="15"/>
@@ -1946,27 +1980,31 @@
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
+      <c r="C8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="34"/>
       <c r="L8" s="7"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
@@ -1991,27 +2029,31 @@
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
+      <c r="F9" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="34"/>
       <c r="L9" s="7"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
@@ -2036,27 +2078,31 @@
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
+      <c r="C10" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="34"/>
       <c r="L10" s="7"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
@@ -2081,27 +2127,31 @@
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
+      <c r="E11" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="34"/>
       <c r="L11" s="7"/>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
@@ -2126,27 +2176,31 @@
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
+      <c r="C12" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="34"/>
       <c r="L12" s="7"/>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
@@ -2171,27 +2225,31 @@
       <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H13" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
+      <c r="C13" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" s="34"/>
       <c r="L13" s="7"/>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
@@ -2216,27 +2274,31 @@
       <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
+      <c r="C14" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="34"/>
       <c r="L14" s="7"/>
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
@@ -2261,27 +2323,31 @@
       <c r="B15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
+      <c r="C15" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="34"/>
       <c r="L15" s="7"/>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
@@ -2306,27 +2372,31 @@
       <c r="B16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="H16" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
+      <c r="C16" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" s="34"/>
       <c r="L16" s="7"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
@@ -2351,27 +2421,31 @@
       <c r="B17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
+      <c r="C17" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" s="34"/>
       <c r="L17" s="7"/>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
@@ -2396,27 +2470,31 @@
       <c r="B18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
+      <c r="C18" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="34"/>
       <c r="L18" s="7"/>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
@@ -2459,14 +2537,14 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="178" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
@@ -2486,16 +2564,18 @@
       <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="30"/>
+      <c r="C1" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="29"/>
     </row>
     <row r="2" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
@@ -2512,8 +2592,8 @@
       <c r="H2" s="19"/>
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="31"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="30"/>
     </row>
     <row r="3" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
@@ -2522,7 +2602,9 @@
       <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="12"/>
+      <c r="C3" s="37" t="s">
+        <v>3</v>
+      </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="10"/>
@@ -2530,8 +2612,8 @@
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="30"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="29"/>
     </row>
     <row r="4" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
@@ -2548,8 +2630,8 @@
       <c r="H4" s="12"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="31"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="30"/>
     </row>
     <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
@@ -2566,8 +2648,8 @@
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="30"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="29"/>
     </row>
     <row r="6" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
@@ -2584,9 +2666,9 @@
       <c r="H6" s="12"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="27"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="26"/>
     </row>
     <row r="7" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
@@ -2603,8 +2685,8 @@
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="31"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="30"/>
     </row>
     <row r="8" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
@@ -2621,8 +2703,8 @@
       <c r="H8" s="12"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="32"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="31"/>
     </row>
     <row r="9" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
@@ -2639,8 +2721,8 @@
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="30"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="29"/>
     </row>
     <row r="10" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
@@ -2649,7 +2731,9 @@
       <c r="B10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="12"/>
+      <c r="C10" s="37" t="s">
+        <v>3</v>
+      </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="10"/>
@@ -2657,8 +2741,8 @@
       <c r="H10" s="12"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="31"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="30"/>
     </row>
     <row r="11" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
@@ -2675,8 +2759,8 @@
       <c r="H11" s="12"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="30"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="29"/>
     </row>
     <row r="12" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
@@ -2685,7 +2769,9 @@
       <c r="B12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="12"/>
+      <c r="C12" s="37" t="s">
+        <v>3</v>
+      </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
@@ -2693,8 +2779,8 @@
       <c r="H12" s="12"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="30"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="29"/>
     </row>
     <row r="13" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
@@ -2711,8 +2797,8 @@
       <c r="H13" s="12"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="30"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="29"/>
     </row>
     <row r="14" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
@@ -2729,8 +2815,8 @@
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="31"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="30"/>
     </row>
     <row r="15" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
@@ -2739,7 +2825,9 @@
       <c r="B15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="12"/>
+      <c r="C15" s="37" t="s">
+        <v>3</v>
+      </c>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -2747,8 +2835,8 @@
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="30"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="29"/>
     </row>
     <row r="16" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
@@ -2765,8 +2853,8 @@
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="30"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="29"/>
     </row>
     <row r="17" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
@@ -2783,8 +2871,8 @@
       <c r="H17" s="12"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="30"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="29"/>
     </row>
     <row r="18" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
@@ -2801,8 +2889,8 @@
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="31"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="30"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:K18 L6:M6">

--- a/sem1/Успеваемость_С-ИП-21-2.xlsx
+++ b/sem1/Успеваемость_С-ИП-21-2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/AI/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4029F84E-B612-EA4B-9B53-1AF3BC233699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB68E672-598B-1E44-8F3E-3787E26426DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="23">
   <si>
     <t>№</t>
   </si>
@@ -158,12 +158,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
@@ -171,6 +165,12 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -312,12 +312,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -338,7 +334,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -358,32 +354,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1617,15 +1619,16 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="166" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E12" sqref="E12"/>
+      <selection pane="topRight" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="38.33203125" style="1" customWidth="1"/>
-    <col min="3" max="11" width="9.1640625" style="35" customWidth="1"/>
-    <col min="12" max="20" width="9.1640625" style="1" customWidth="1"/>
+    <col min="3" max="12" width="6.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="9.1640625" style="32" customWidth="1"/>
+    <col min="16" max="20" width="9.1640625" style="1" customWidth="1"/>
     <col min="21" max="21" width="8.83203125" style="1" customWidth="1"/>
     <col min="22" max="16384" width="8.83203125" style="1"/>
   </cols>
@@ -1637,880 +1640,952 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32">
+      <c r="C1" s="30">
         <v>45174</v>
       </c>
-      <c r="D1" s="32">
+      <c r="D1" s="30">
         <v>45175</v>
       </c>
-      <c r="E1" s="32">
+      <c r="E1" s="30">
         <v>45182</v>
       </c>
-      <c r="F1" s="32">
+      <c r="F1" s="30">
         <v>45188</v>
       </c>
-      <c r="G1" s="32">
+      <c r="G1" s="30">
         <v>45189</v>
       </c>
-      <c r="H1" s="32">
+      <c r="H1" s="30">
         <v>45196</v>
       </c>
-      <c r="I1" s="32">
+      <c r="I1" s="30">
         <v>45202</v>
       </c>
-      <c r="J1" s="32">
+      <c r="J1" s="30">
         <v>45203</v>
       </c>
-      <c r="K1" s="32"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
+      <c r="K1" s="30">
+        <v>45210</v>
+      </c>
+      <c r="L1" s="36">
+        <v>45216</v>
+      </c>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
     </row>
     <row r="2" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
+      <c r="G2" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
     </row>
     <row r="3" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="34"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="15"/>
+      <c r="C3" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
     </row>
     <row r="4" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="34"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="15"/>
+      <c r="C4" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
     </row>
     <row r="5" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="34"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15"/>
+      <c r="C5" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
     </row>
     <row r="6" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="K6" s="34"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="22"/>
+      <c r="C6" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="20"/>
     </row>
     <row r="7" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="J7" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7" s="34"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="15"/>
+      <c r="C7" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
     </row>
     <row r="8" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="34"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="15"/>
+      <c r="C8" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
     </row>
     <row r="9" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="34"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="15"/>
+      <c r="F9" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
     </row>
     <row r="10" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="34"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="15"/>
+      <c r="C10" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
     </row>
     <row r="11" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="J11" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="K11" s="34"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="15"/>
+      <c r="E11" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
     </row>
     <row r="12" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="K12" s="34"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="15"/>
+      <c r="C12" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
     </row>
     <row r="13" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="H13" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="I13" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="J13" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="K13" s="34"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="15"/>
+      <c r="C13" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
     </row>
     <row r="14" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="34"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="15"/>
+      <c r="C14" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
     </row>
     <row r="15" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="K15" s="34"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="15"/>
+      <c r="C15" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
     </row>
     <row r="16" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="H16" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="I16" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="J16" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="K16" s="34"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="15"/>
-      <c r="Z16" s="15"/>
-      <c r="AA16" s="15"/>
+      <c r="C16" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="L16" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
     </row>
     <row r="17" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" s="34"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="15"/>
-      <c r="AA17" s="15"/>
+      <c r="C17" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="13"/>
     </row>
     <row r="18" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18" s="34"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="15"/>
-      <c r="AA18" s="15"/>
+      <c r="C18" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:L18">
@@ -2537,7 +2612,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="178" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2558,339 +2633,347 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="29"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="27"/>
     </row>
     <row r="2" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="30"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="28"/>
     </row>
     <row r="3" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="29"/>
+      <c r="C3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="27"/>
     </row>
     <row r="4" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="30"/>
+      <c r="C4" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="28"/>
     </row>
     <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="29"/>
+      <c r="C5" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="27"/>
     </row>
     <row r="6" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="26"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="24"/>
     </row>
     <row r="7" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="30"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="28"/>
     </row>
     <row r="8" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="31"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="29"/>
     </row>
     <row r="9" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="29"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="27"/>
     </row>
     <row r="10" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="30"/>
+      <c r="C10" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="28"/>
     </row>
     <row r="11" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="29"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="27"/>
     </row>
     <row r="12" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="29"/>
+      <c r="C12" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="27"/>
     </row>
     <row r="13" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="29"/>
+      <c r="C13" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="27"/>
     </row>
     <row r="14" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="11">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="30"/>
+      <c r="C14" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="28"/>
     </row>
     <row r="15" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11">
+      <c r="A15" s="9">
         <v>14</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="29"/>
+      <c r="C15" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="27"/>
     </row>
     <row r="16" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11">
+      <c r="A16" s="9">
         <v>15</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="29"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="27"/>
     </row>
     <row r="17" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="11">
+      <c r="A17" s="9">
         <v>16</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="29"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="27"/>
     </row>
     <row r="18" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="11">
+      <c r="A18" s="9">
         <v>17</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="30"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="28"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:K18 L6:M6">
